--- a/biology/Botanique/Potentilla_nepalensis/Potentilla_nepalensis.xlsx
+++ b/biology/Botanique/Potentilla_nepalensis/Potentilla_nepalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Potentilla nepalensis, aussi appelée Quintefeuille du Népal, et également potentille vivace du Népal, est une espèce de plantes à fleurs du genre Potentilla[2] et de la famille des Rosaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Potentilla nepalensis, aussi appelée Quintefeuille du Népal, et également potentille vivace du Népal, est une espèce de plantes à fleurs du genre Potentilla et de la famille des Rosaceae.
 Synonymes :
 Potentilla nepalensis willmottiae
 Potentilla willmottiae
@@ -515,9 +527,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Potentilla nepalensis est une plante vivace qui peut atteindre une hauteur de 30 à 60 centimètres. Elle forme des monticules bas de feuilles vert foncé composées de larges folioles qui ressemblent à celles des fraisiers. Les fleurs à 5 pétales en forme de coupe peuvent être rouge cerise ou rose foncé, avec un centre plus foncé, d’environ 2,5 cm de largeur. Elle fleurit de juillet à août[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Potentilla nepalensis est une plante vivace qui peut atteindre une hauteur de 30 à 60 centimètres. Elle forme des monticules bas de feuilles vert foncé composées de larges folioles qui ressemblent à celles des fraisiers. Les fleurs à 5 pétales en forme de coupe peuvent être rouge cerise ou rose foncé, avec un centre plus foncé, d’environ 2,5 cm de largeur. Elle fleurit de juillet à août.
 Plante himalayenne très rustique, elle offre en été des nuées de fleurs rose cerise, à peine lavé de crème, au cœur rouge profond, pleines de fraîcheur et de vivacité, sur les tiges fines et ramifiées de sa ramure étalée.
 </t>
         </is>
@@ -547,10 +561,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est originaire d’Asie de l’Est et de l’Himalaya occidental, du Pakistan au Népal.
-Cette espèce peut être trouvée dans les pâturages d'altitudes entre 2100 et 2700 mètres[3].
+Cette espèce peut être trouvée dans les pâturages d'altitudes entre 2100 et 2700 mètres.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Résistante et demandant peu d'entretien, elle peut être utilisée comme espèce ornementale de rocailles et pour les toitures végétales[4] 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Résistante et demandant peu d'entretien, elle peut être utilisée comme espèce ornementale de rocailles et pour les toitures végétales 
 </t>
         </is>
       </c>
